--- a/techniqo/data_new_ticker/ASAHIINDIA.xlsx
+++ b/techniqo/data_new_ticker/ASAHIINDIA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1408"/>
+  <dimension ref="A1:G1410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49666,6 +49666,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>228.9</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>231.05</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>227.95</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>85552</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1410" t="n">
+        <v>228</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>229.65</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>221.7</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>228.3</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>37076</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ASAHIINDIA.xlsx
+++ b/techniqo/data_new_ticker/ASAHIINDIA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1410"/>
+  <dimension ref="A1:G1412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49716,6 +49716,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>227.05</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>238</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>217.65</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>231.2</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>90864</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>233.8</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>233.8</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>222.05</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>223.65</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>23518</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
